--- a/SCV_data_information_short.xlsx
+++ b/SCV_data_information_short.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16200" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24940" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="78" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" zoomScalePageLayoutView="172" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -750,7 +750,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -838,7 +838,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>

--- a/SCV_data_information_short.xlsx
+++ b/SCV_data_information_short.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" zoomScalePageLayoutView="172" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" zoomScalePageLayoutView="172" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>12</v>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -674,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -700,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -724,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>12</v>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -834,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H13" s="10"/>
     </row>
